--- a/opset_20/Windows - DirectML/report_DmlExecutionProvider.xlsx
+++ b/opset_20/Windows - DirectML/report_DmlExecutionProvider.xlsx
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-29 10:43:36</t>
+          <t>2025-11-18 14:35:54</t>
         </is>
       </c>
     </row>

--- a/opset_20/Windows - DirectML/report_DmlExecutionProvider.xlsx
+++ b/opset_20/Windows - DirectML/report_DmlExecutionProvider.xlsx
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-11-18 14:35:54</t>
+          <t>2025-11-18 14:49:01</t>
         </is>
       </c>
     </row>
